--- a/NBA DATA.xlsx
+++ b/NBA DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfens\Documents\STAT400\NBA-Playoff-Stat-Pred\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A06CC864-4F6E-4F78-8530-2DB4031D5D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE948EF-17A8-44D4-8ADC-4E31F54450C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC183DD1-A0C6-43B3-866B-AE5C4D2C46C4}"/>
+    <workbookView xWindow="11352" yWindow="144" windowWidth="11688" windowHeight="12096" xr2:uid="{CC183DD1-A0C6-43B3-866B-AE5C4D2C46C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="30">
   <si>
     <t>Player</t>
   </si>
@@ -178,10 +178,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34990CCC-45AE-4EC6-BB58-23AD10A04A37}">
-  <dimension ref="A1:K327"/>
+  <dimension ref="A1:K329"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F312" sqref="F312"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H125" sqref="H125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1042,6 +1038,76 @@
         <v>10.9</v>
       </c>
     </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="J16">
+        <v>3.9</v>
+      </c>
+      <c r="K16">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="J17">
+        <v>3.9</v>
+      </c>
+      <c r="K17">
+        <v>10.9</v>
+      </c>
+    </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
@@ -1532,6 +1598,76 @@
         <v>1.3</v>
       </c>
     </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="J36">
+        <v>6.9</v>
+      </c>
+      <c r="K36">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>22</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="J37">
+        <v>6.9</v>
+      </c>
+      <c r="K37">
+        <v>1.3</v>
+      </c>
+    </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>8</v>
@@ -2022,6 +2158,76 @@
         <v>4.3</v>
       </c>
     </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56">
+        <v>15</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>28</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56">
+        <v>21.7</v>
+      </c>
+      <c r="J56">
+        <v>7.1</v>
+      </c>
+      <c r="K56">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57">
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>22</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>6</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>21.7</v>
+      </c>
+      <c r="J57">
+        <v>7.1</v>
+      </c>
+      <c r="K57">
+        <v>4.3</v>
+      </c>
+    </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>10</v>
@@ -2407,6 +2613,76 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73">
+        <v>12</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>23</v>
+      </c>
+      <c r="F73">
+        <v>6</v>
+      </c>
+      <c r="G73">
+        <v>5</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>26.9</v>
+      </c>
+      <c r="J73">
+        <v>8.1</v>
+      </c>
+      <c r="K73">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74">
+        <v>13</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>36</v>
+      </c>
+      <c r="F74">
+        <v>10</v>
+      </c>
+      <c r="G74">
+        <v>8</v>
+      </c>
+      <c r="H74">
+        <v>5</v>
+      </c>
+      <c r="I74">
+        <v>26.9</v>
+      </c>
+      <c r="J74">
+        <v>8.1</v>
+      </c>
+      <c r="K74">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>11</v>
@@ -2792,6 +3068,76 @@
         <v>3.6</v>
       </c>
     </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90">
+        <v>12</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>40</v>
+      </c>
+      <c r="F90">
+        <v>5</v>
+      </c>
+      <c r="G90">
+        <v>2</v>
+      </c>
+      <c r="H90">
+        <v>4</v>
+      </c>
+      <c r="I90">
+        <v>23</v>
+      </c>
+      <c r="J90">
+        <v>5.5</v>
+      </c>
+      <c r="K90">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91">
+        <v>13</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>24</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91">
+        <v>3</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>23</v>
+      </c>
+      <c r="J91">
+        <v>5.5</v>
+      </c>
+      <c r="K91">
+        <v>3.6</v>
+      </c>
+    </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>12</v>
@@ -3177,6 +3523,76 @@
         <v>4.8</v>
       </c>
     </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107">
+        <v>12</v>
+      </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107">
+        <v>15</v>
+      </c>
+      <c r="F107">
+        <v>3</v>
+      </c>
+      <c r="G107">
+        <v>10</v>
+      </c>
+      <c r="H107">
+        <v>3</v>
+      </c>
+      <c r="I107">
+        <v>12.5</v>
+      </c>
+      <c r="J107">
+        <v>5.4</v>
+      </c>
+      <c r="K107">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108">
+        <v>13</v>
+      </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
+      <c r="E108">
+        <v>14</v>
+      </c>
+      <c r="F108">
+        <v>9</v>
+      </c>
+      <c r="G108">
+        <v>3</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>12.5</v>
+      </c>
+      <c r="J108">
+        <v>5.4</v>
+      </c>
+      <c r="K108">
+        <v>4.8</v>
+      </c>
+    </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>13</v>
@@ -3562,6 +3978,76 @@
         <v>5.2</v>
       </c>
     </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124">
+        <v>12</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124">
+        <v>23</v>
+      </c>
+      <c r="F124">
+        <v>4</v>
+      </c>
+      <c r="G124">
+        <v>6</v>
+      </c>
+      <c r="H124">
+        <v>4</v>
+      </c>
+      <c r="I124">
+        <v>15.2</v>
+      </c>
+      <c r="J124">
+        <v>4.2</v>
+      </c>
+      <c r="K124">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125">
+        <v>13</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+      <c r="D125">
+        <v>3</v>
+      </c>
+      <c r="E125">
+        <v>13</v>
+      </c>
+      <c r="F125">
+        <v>5</v>
+      </c>
+      <c r="G125">
+        <v>7</v>
+      </c>
+      <c r="H125">
+        <v>2</v>
+      </c>
+      <c r="I125">
+        <v>15.2</v>
+      </c>
+      <c r="J125">
+        <v>4.2</v>
+      </c>
+      <c r="K125">
+        <v>5.2</v>
+      </c>
+    </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>14</v>
@@ -4017,6 +4503,76 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>14</v>
+      </c>
+      <c r="B143">
+        <v>14</v>
+      </c>
+      <c r="C143">
+        <v>3</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+      <c r="E143">
+        <v>32</v>
+      </c>
+      <c r="F143">
+        <v>10</v>
+      </c>
+      <c r="G143">
+        <v>13</v>
+      </c>
+      <c r="H143">
+        <v>5</v>
+      </c>
+      <c r="I143">
+        <v>33.9</v>
+      </c>
+      <c r="J143">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K143">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>14</v>
+      </c>
+      <c r="B144">
+        <v>15</v>
+      </c>
+      <c r="C144">
+        <v>3</v>
+      </c>
+      <c r="D144">
+        <v>3</v>
+      </c>
+      <c r="E144">
+        <v>33</v>
+      </c>
+      <c r="F144">
+        <v>7</v>
+      </c>
+      <c r="G144">
+        <v>5</v>
+      </c>
+      <c r="H144">
+        <v>5</v>
+      </c>
+      <c r="I144">
+        <v>33.9</v>
+      </c>
+      <c r="J144">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K144">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>15</v>
@@ -4472,6 +5028,76 @@
         <v>5.2</v>
       </c>
     </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>15</v>
+      </c>
+      <c r="B162">
+        <v>14</v>
+      </c>
+      <c r="C162">
+        <v>3</v>
+      </c>
+      <c r="D162">
+        <v>2</v>
+      </c>
+      <c r="E162">
+        <v>20</v>
+      </c>
+      <c r="F162">
+        <v>4</v>
+      </c>
+      <c r="G162">
+        <v>6</v>
+      </c>
+      <c r="H162">
+        <v>4</v>
+      </c>
+      <c r="I162">
+        <v>25.6</v>
+      </c>
+      <c r="J162">
+        <v>5</v>
+      </c>
+      <c r="K162">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>15</v>
+      </c>
+      <c r="B163">
+        <v>15</v>
+      </c>
+      <c r="C163">
+        <v>3</v>
+      </c>
+      <c r="D163">
+        <v>3</v>
+      </c>
+      <c r="E163">
+        <v>33</v>
+      </c>
+      <c r="F163">
+        <v>3</v>
+      </c>
+      <c r="G163">
+        <v>4</v>
+      </c>
+      <c r="H163">
+        <v>3</v>
+      </c>
+      <c r="I163">
+        <v>25.6</v>
+      </c>
+      <c r="J163">
+        <v>5</v>
+      </c>
+      <c r="K163">
+        <v>5.2</v>
+      </c>
+    </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>16</v>
@@ -4927,6 +5553,76 @@
         <v>1.9</v>
       </c>
     </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>16</v>
+      </c>
+      <c r="B181">
+        <v>14</v>
+      </c>
+      <c r="C181">
+        <v>3</v>
+      </c>
+      <c r="D181">
+        <v>2</v>
+      </c>
+      <c r="E181">
+        <v>10</v>
+      </c>
+      <c r="F181">
+        <v>5</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>12.9</v>
+      </c>
+      <c r="J181">
+        <v>5.6</v>
+      </c>
+      <c r="K181">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>16</v>
+      </c>
+      <c r="B182">
+        <v>15</v>
+      </c>
+      <c r="C182">
+        <v>3</v>
+      </c>
+      <c r="D182">
+        <v>3</v>
+      </c>
+      <c r="E182">
+        <v>16</v>
+      </c>
+      <c r="F182">
+        <v>8</v>
+      </c>
+      <c r="G182">
+        <v>2</v>
+      </c>
+      <c r="H182">
+        <v>2</v>
+      </c>
+      <c r="I182">
+        <v>12.9</v>
+      </c>
+      <c r="J182">
+        <v>5.6</v>
+      </c>
+      <c r="K182">
+        <v>1.9</v>
+      </c>
+    </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>17</v>
@@ -5382,6 +6078,76 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>17</v>
+      </c>
+      <c r="B200">
+        <v>14</v>
+      </c>
+      <c r="C200">
+        <v>3</v>
+      </c>
+      <c r="D200">
+        <v>2</v>
+      </c>
+      <c r="E200">
+        <v>14</v>
+      </c>
+      <c r="F200">
+        <v>9</v>
+      </c>
+      <c r="G200">
+        <v>2</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J200">
+        <v>6.9</v>
+      </c>
+      <c r="K200">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>17</v>
+      </c>
+      <c r="B201">
+        <v>15</v>
+      </c>
+      <c r="C201">
+        <v>3</v>
+      </c>
+      <c r="D201">
+        <v>3</v>
+      </c>
+      <c r="E201">
+        <v>6</v>
+      </c>
+      <c r="F201">
+        <v>3</v>
+      </c>
+      <c r="G201">
+        <v>2</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J201">
+        <v>6.9</v>
+      </c>
+      <c r="K201">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>18</v>
@@ -5837,6 +6603,76 @@
         <v>1.6</v>
       </c>
     </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>18</v>
+      </c>
+      <c r="B219">
+        <v>14</v>
+      </c>
+      <c r="C219">
+        <v>3</v>
+      </c>
+      <c r="D219">
+        <v>2</v>
+      </c>
+      <c r="E219">
+        <v>16</v>
+      </c>
+      <c r="F219">
+        <v>5</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219">
+        <v>11</v>
+      </c>
+      <c r="J219">
+        <v>7.6</v>
+      </c>
+      <c r="K219">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>18</v>
+      </c>
+      <c r="B220">
+        <v>15</v>
+      </c>
+      <c r="C220">
+        <v>3</v>
+      </c>
+      <c r="D220">
+        <v>3</v>
+      </c>
+      <c r="E220">
+        <v>5</v>
+      </c>
+      <c r="F220">
+        <v>3</v>
+      </c>
+      <c r="G220">
+        <v>1</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>11</v>
+      </c>
+      <c r="J220">
+        <v>7.6</v>
+      </c>
+      <c r="K220">
+        <v>1.6</v>
+      </c>
+    </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>19</v>
@@ -6292,6 +7128,76 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>19</v>
+      </c>
+      <c r="B238">
+        <v>14</v>
+      </c>
+      <c r="C238">
+        <v>3</v>
+      </c>
+      <c r="D238">
+        <v>2</v>
+      </c>
+      <c r="E238">
+        <v>5</v>
+      </c>
+      <c r="F238">
+        <v>6</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="H238">
+        <v>1</v>
+      </c>
+      <c r="I238">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J238">
+        <v>3.2</v>
+      </c>
+      <c r="K238">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>19</v>
+      </c>
+      <c r="B239">
+        <v>15</v>
+      </c>
+      <c r="C239">
+        <v>3</v>
+      </c>
+      <c r="D239">
+        <v>3</v>
+      </c>
+      <c r="E239">
+        <v>3</v>
+      </c>
+      <c r="F239">
+        <v>2</v>
+      </c>
+      <c r="G239">
+        <v>2</v>
+      </c>
+      <c r="H239">
+        <v>1</v>
+      </c>
+      <c r="I239">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J239">
+        <v>3.2</v>
+      </c>
+      <c r="K239">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>20</v>
@@ -6712,6 +7618,76 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>20</v>
+      </c>
+      <c r="B256">
+        <v>13</v>
+      </c>
+      <c r="C256">
+        <v>3</v>
+      </c>
+      <c r="D256">
+        <v>2</v>
+      </c>
+      <c r="E256">
+        <v>21</v>
+      </c>
+      <c r="F256">
+        <v>5</v>
+      </c>
+      <c r="G256">
+        <v>7</v>
+      </c>
+      <c r="H256">
+        <v>2</v>
+      </c>
+      <c r="I256">
+        <v>25.9</v>
+      </c>
+      <c r="J256">
+        <v>5.4</v>
+      </c>
+      <c r="K256">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>20</v>
+      </c>
+      <c r="B257">
+        <v>14</v>
+      </c>
+      <c r="C257">
+        <v>3</v>
+      </c>
+      <c r="D257">
+        <v>3</v>
+      </c>
+      <c r="E257">
+        <v>26</v>
+      </c>
+      <c r="F257">
+        <v>9</v>
+      </c>
+      <c r="G257">
+        <v>9</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+      <c r="I257">
+        <v>25.9</v>
+      </c>
+      <c r="J257">
+        <v>5.4</v>
+      </c>
+      <c r="K257">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>21</v>
@@ -7132,6 +8108,76 @@
         <v>3</v>
       </c>
     </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>21</v>
+      </c>
+      <c r="B274">
+        <v>13</v>
+      </c>
+      <c r="C274">
+        <v>3</v>
+      </c>
+      <c r="D274">
+        <v>2</v>
+      </c>
+      <c r="E274">
+        <v>15</v>
+      </c>
+      <c r="F274">
+        <v>7</v>
+      </c>
+      <c r="G274">
+        <v>3</v>
+      </c>
+      <c r="H274">
+        <v>1</v>
+      </c>
+      <c r="I274">
+        <v>21.8</v>
+      </c>
+      <c r="J274">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K274">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>21</v>
+      </c>
+      <c r="B275">
+        <v>14</v>
+      </c>
+      <c r="C275">
+        <v>3</v>
+      </c>
+      <c r="D275">
+        <v>3</v>
+      </c>
+      <c r="E275">
+        <v>14</v>
+      </c>
+      <c r="F275">
+        <v>11</v>
+      </c>
+      <c r="G275">
+        <v>3</v>
+      </c>
+      <c r="H275">
+        <v>0</v>
+      </c>
+      <c r="I275">
+        <v>21.8</v>
+      </c>
+      <c r="J275">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K275">
+        <v>3</v>
+      </c>
+    </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>22</v>
@@ -7552,6 +8598,76 @@
         <v>1.4</v>
       </c>
     </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>22</v>
+      </c>
+      <c r="B292">
+        <v>13</v>
+      </c>
+      <c r="C292">
+        <v>3</v>
+      </c>
+      <c r="D292">
+        <v>2</v>
+      </c>
+      <c r="E292">
+        <v>2</v>
+      </c>
+      <c r="F292">
+        <v>5</v>
+      </c>
+      <c r="G292">
+        <v>2</v>
+      </c>
+      <c r="H292">
+        <v>0</v>
+      </c>
+      <c r="I292">
+        <v>10.5</v>
+      </c>
+      <c r="J292">
+        <v>3.1</v>
+      </c>
+      <c r="K292">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>22</v>
+      </c>
+      <c r="B293">
+        <v>14</v>
+      </c>
+      <c r="C293">
+        <v>3</v>
+      </c>
+      <c r="D293">
+        <v>3</v>
+      </c>
+      <c r="E293">
+        <v>15</v>
+      </c>
+      <c r="F293">
+        <v>1</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+      <c r="H293">
+        <v>3</v>
+      </c>
+      <c r="I293">
+        <v>10.5</v>
+      </c>
+      <c r="J293">
+        <v>3.1</v>
+      </c>
+      <c r="K293">
+        <v>1.4</v>
+      </c>
+    </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>23</v>
@@ -7972,6 +9088,76 @@
         <v>1.3</v>
       </c>
     </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>23</v>
+      </c>
+      <c r="B310">
+        <v>13</v>
+      </c>
+      <c r="C310">
+        <v>3</v>
+      </c>
+      <c r="D310">
+        <v>2</v>
+      </c>
+      <c r="E310">
+        <v>16</v>
+      </c>
+      <c r="F310">
+        <v>10</v>
+      </c>
+      <c r="G310">
+        <v>2</v>
+      </c>
+      <c r="H310">
+        <v>0</v>
+      </c>
+      <c r="I310">
+        <v>14</v>
+      </c>
+      <c r="J310">
+        <v>12.9</v>
+      </c>
+      <c r="K310">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>23</v>
+      </c>
+      <c r="B311">
+        <v>14</v>
+      </c>
+      <c r="C311">
+        <v>3</v>
+      </c>
+      <c r="D311">
+        <v>3</v>
+      </c>
+      <c r="E311">
+        <v>9</v>
+      </c>
+      <c r="F311">
+        <v>6</v>
+      </c>
+      <c r="G311">
+        <v>2</v>
+      </c>
+      <c r="H311">
+        <v>0</v>
+      </c>
+      <c r="I311">
+        <v>14</v>
+      </c>
+      <c r="J311">
+        <v>12.9</v>
+      </c>
+      <c r="K311">
+        <v>1.3</v>
+      </c>
+    </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>24</v>
@@ -8389,6 +9575,76 @@
         <v>2.9</v>
       </c>
       <c r="K327">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>24</v>
+      </c>
+      <c r="B328">
+        <v>13</v>
+      </c>
+      <c r="C328">
+        <v>3</v>
+      </c>
+      <c r="D328">
+        <v>2</v>
+      </c>
+      <c r="E328">
+        <v>18</v>
+      </c>
+      <c r="F328">
+        <v>5</v>
+      </c>
+      <c r="G328">
+        <v>1</v>
+      </c>
+      <c r="H328">
+        <v>2</v>
+      </c>
+      <c r="I328">
+        <v>11.4</v>
+      </c>
+      <c r="J328">
+        <v>2.9</v>
+      </c>
+      <c r="K328">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>24</v>
+      </c>
+      <c r="B329">
+        <v>14</v>
+      </c>
+      <c r="C329">
+        <v>3</v>
+      </c>
+      <c r="D329">
+        <v>3</v>
+      </c>
+      <c r="E329">
+        <v>16</v>
+      </c>
+      <c r="F329">
+        <v>1</v>
+      </c>
+      <c r="G329">
+        <v>4</v>
+      </c>
+      <c r="H329">
+        <v>4</v>
+      </c>
+      <c r="I329">
+        <v>11.4</v>
+      </c>
+      <c r="J329">
+        <v>2.9</v>
+      </c>
+      <c r="K329">
         <v>5.9</v>
       </c>
     </row>

--- a/NBA DATA.xlsx
+++ b/NBA DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfens\Documents\STAT400\NBA-Playoff-Stat-Pred\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C8E1F0-15E6-4EEF-BD0E-230CEF4C3EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC43D2D2-A7EF-46D4-B41D-6D2B27314286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11352" yWindow="144" windowWidth="11688" windowHeight="12096" xr2:uid="{CC183DD1-A0C6-43B3-866B-AE5C4D2C46C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC183DD1-A0C6-43B3-866B-AE5C4D2C46C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="27">
   <si>
     <t>Player</t>
   </si>
@@ -488,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34990CCC-45AE-4EC6-BB58-23AD10A04A37}">
-  <dimension ref="A1:K269"/>
+  <dimension ref="A1:K270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84:K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3024,6 +3024,41 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85">
+        <v>16</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+      <c r="E85">
+        <v>28</v>
+      </c>
+      <c r="F85">
+        <v>15</v>
+      </c>
+      <c r="G85">
+        <v>10</v>
+      </c>
+      <c r="H85">
+        <v>4</v>
+      </c>
+      <c r="I85">
+        <v>33.9</v>
+      </c>
+      <c r="J85">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K85">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>12</v>
@@ -3549,6 +3584,41 @@
         <v>5.2</v>
       </c>
     </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104">
+        <v>16</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <v>4</v>
+      </c>
+      <c r="E104">
+        <v>16</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+      <c r="G104">
+        <v>4</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>25.6</v>
+      </c>
+      <c r="J104">
+        <v>5</v>
+      </c>
+      <c r="K104">
+        <v>5.2</v>
+      </c>
+    </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>13</v>
@@ -4074,6 +4144,41 @@
         <v>1.9</v>
       </c>
     </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>13</v>
+      </c>
+      <c r="B123">
+        <v>16</v>
+      </c>
+      <c r="C123">
+        <v>3</v>
+      </c>
+      <c r="D123">
+        <v>4</v>
+      </c>
+      <c r="E123">
+        <v>10</v>
+      </c>
+      <c r="F123">
+        <v>5</v>
+      </c>
+      <c r="G123">
+        <v>2</v>
+      </c>
+      <c r="H123">
+        <v>2</v>
+      </c>
+      <c r="I123">
+        <v>12.9</v>
+      </c>
+      <c r="J123">
+        <v>5.6</v>
+      </c>
+      <c r="K123">
+        <v>1.9</v>
+      </c>
+    </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>14</v>
@@ -4599,6 +4704,41 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>14</v>
+      </c>
+      <c r="B142">
+        <v>16</v>
+      </c>
+      <c r="C142">
+        <v>3</v>
+      </c>
+      <c r="D142">
+        <v>4</v>
+      </c>
+      <c r="E142" t="s">
+        <v>22</v>
+      </c>
+      <c r="F142" t="s">
+        <v>22</v>
+      </c>
+      <c r="G142" t="s">
+        <v>22</v>
+      </c>
+      <c r="H142" t="s">
+        <v>22</v>
+      </c>
+      <c r="I142">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J142">
+        <v>6.9</v>
+      </c>
+      <c r="K142">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>15</v>
@@ -5124,6 +5264,41 @@
         <v>1.6</v>
       </c>
     </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>15</v>
+      </c>
+      <c r="B161">
+        <v>16</v>
+      </c>
+      <c r="C161">
+        <v>3</v>
+      </c>
+      <c r="D161">
+        <v>4</v>
+      </c>
+      <c r="E161">
+        <v>12</v>
+      </c>
+      <c r="F161">
+        <v>8</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>11</v>
+      </c>
+      <c r="J161">
+        <v>7.6</v>
+      </c>
+      <c r="K161">
+        <v>1.6</v>
+      </c>
+    </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>16</v>
@@ -5649,6 +5824,41 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>16</v>
+      </c>
+      <c r="B180">
+        <v>16</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+      <c r="D180">
+        <v>4</v>
+      </c>
+      <c r="E180">
+        <v>5</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+      <c r="G180">
+        <v>1</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="I180">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J180">
+        <v>3.2</v>
+      </c>
+      <c r="K180">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>17</v>
@@ -6139,6 +6349,41 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>17</v>
+      </c>
+      <c r="B198">
+        <v>15</v>
+      </c>
+      <c r="C198">
+        <v>3</v>
+      </c>
+      <c r="D198">
+        <v>4</v>
+      </c>
+      <c r="E198">
+        <v>29</v>
+      </c>
+      <c r="F198">
+        <v>10</v>
+      </c>
+      <c r="G198">
+        <v>9</v>
+      </c>
+      <c r="H198">
+        <v>2</v>
+      </c>
+      <c r="I198">
+        <v>25.9</v>
+      </c>
+      <c r="J198">
+        <v>5.4</v>
+      </c>
+      <c r="K198">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>18</v>
@@ -6629,6 +6874,41 @@
         <v>3</v>
       </c>
     </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>18</v>
+      </c>
+      <c r="B216">
+        <v>15</v>
+      </c>
+      <c r="C216">
+        <v>3</v>
+      </c>
+      <c r="D216">
+        <v>4</v>
+      </c>
+      <c r="E216">
+        <v>25</v>
+      </c>
+      <c r="F216">
+        <v>5</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <v>4</v>
+      </c>
+      <c r="I216">
+        <v>21.8</v>
+      </c>
+      <c r="J216">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K216">
+        <v>3</v>
+      </c>
+    </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>19</v>
@@ -7119,6 +7399,41 @@
         <v>1.4</v>
       </c>
     </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>19</v>
+      </c>
+      <c r="B234">
+        <v>15</v>
+      </c>
+      <c r="C234">
+        <v>3</v>
+      </c>
+      <c r="D234">
+        <v>4</v>
+      </c>
+      <c r="E234">
+        <v>10</v>
+      </c>
+      <c r="F234">
+        <v>1</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <v>2</v>
+      </c>
+      <c r="I234">
+        <v>10.5</v>
+      </c>
+      <c r="J234">
+        <v>3.1</v>
+      </c>
+      <c r="K234">
+        <v>1.4</v>
+      </c>
+    </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>20</v>
@@ -7609,6 +7924,41 @@
         <v>1.3</v>
       </c>
     </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>20</v>
+      </c>
+      <c r="B252">
+        <v>15</v>
+      </c>
+      <c r="C252">
+        <v>3</v>
+      </c>
+      <c r="D252">
+        <v>4</v>
+      </c>
+      <c r="E252">
+        <v>13</v>
+      </c>
+      <c r="F252">
+        <v>10</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
+      </c>
+      <c r="H252">
+        <v>0</v>
+      </c>
+      <c r="I252">
+        <v>14</v>
+      </c>
+      <c r="J252">
+        <v>12.9</v>
+      </c>
+      <c r="K252">
+        <v>1.3</v>
+      </c>
+    </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>21</v>
@@ -8093,10 +8443,45 @@
         <v>11.4</v>
       </c>
       <c r="J269">
-        <v>2.9</v>
+        <v>11.4</v>
       </c>
       <c r="K269">
-        <v>5.9</v>
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>21</v>
+      </c>
+      <c r="B270">
+        <v>15</v>
+      </c>
+      <c r="C270">
+        <v>3</v>
+      </c>
+      <c r="D270">
+        <v>4</v>
+      </c>
+      <c r="E270">
+        <v>14</v>
+      </c>
+      <c r="F270">
+        <v>3</v>
+      </c>
+      <c r="G270">
+        <v>7</v>
+      </c>
+      <c r="H270">
+        <v>1</v>
+      </c>
+      <c r="I270">
+        <v>11.4</v>
+      </c>
+      <c r="J270">
+        <v>11.4</v>
+      </c>
+      <c r="K270">
+        <v>11.4</v>
       </c>
     </row>
   </sheetData>
